--- a/Data/Processed/05_Acoustic-Data_Acoustic-Exp.xlsx
+++ b/Data/Processed/05_Acoustic-Data_Acoustic-Exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Mestrado\Projeto\Artigos\Experimento\BESocio\Article_behav-S.max_V03\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16D018-1308-4262-8109-ABB515C71123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9D38C-9BF4-4A3D-8F4F-6263115DD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{AB6B003B-C199-439F-97C2-7DB07D3C54E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AB6B003B-C199-439F-97C2-7DB07D3C54E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Calls-frequency" sheetId="7" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="27">
   <si>
     <t>M03</t>
   </si>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE45548-A4F7-4BBD-B221-A8C4E6ED4CE9}">
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,13 +3875,13 @@
         <v>50</v>
       </c>
       <c r="D167">
-        <v>6281.25</v>
+        <v>3187.5</v>
       </c>
       <c r="E167">
-        <v>7406.25</v>
+        <v>3562.5</v>
       </c>
       <c r="F167">
-        <v>7406.25</v>
+        <v>3281.25</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,13 +3895,13 @@
         <v>50</v>
       </c>
       <c r="D168">
-        <v>6375</v>
+        <v>2718.75</v>
       </c>
       <c r="E168">
-        <v>12281.25</v>
+        <v>3281.25</v>
       </c>
       <c r="F168">
-        <v>6187.5</v>
+        <v>2718.75</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,13 +3915,13 @@
         <v>50</v>
       </c>
       <c r="D169">
-        <v>6375</v>
+        <v>2812.5</v>
       </c>
       <c r="E169">
-        <v>12375</v>
+        <v>3656.25</v>
       </c>
       <c r="F169">
-        <v>7218.75</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3932,116 +3932,116 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>3187.5</v>
+        <v>3000</v>
       </c>
       <c r="E170">
-        <v>3562.5</v>
+        <v>3656.25</v>
       </c>
       <c r="F170">
-        <v>3281.25</v>
+        <v>3093.75</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C171">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D171">
-        <v>2718.75</v>
+        <v>5156.25</v>
       </c>
       <c r="E171">
-        <v>3281.25</v>
+        <v>5531.25</v>
       </c>
       <c r="F171">
-        <v>2718.75</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C172">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D172">
-        <v>2812.5</v>
+        <v>5156.25</v>
       </c>
       <c r="E172">
-        <v>3656.25</v>
+        <v>5625</v>
       </c>
       <c r="F172">
-        <v>3937.5</v>
+        <v>5531.25</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D173">
-        <v>3000</v>
+        <v>2156.25</v>
       </c>
       <c r="E173">
-        <v>3656.25</v>
+        <v>3750</v>
       </c>
       <c r="F173">
-        <v>3093.75</v>
+        <v>2156.25</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
       </c>
       <c r="C174">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D174">
-        <v>5156.25</v>
+        <v>2156.25</v>
       </c>
       <c r="E174">
-        <v>5531.25</v>
+        <v>3750</v>
       </c>
       <c r="F174">
-        <v>5250</v>
+        <v>2156.25</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
       </c>
       <c r="C175">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D175">
-        <v>5156.25</v>
+        <v>2156.25</v>
       </c>
       <c r="E175">
-        <v>5625</v>
+        <v>3656.25</v>
       </c>
       <c r="F175">
-        <v>5531.25</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>3750</v>
       </c>
       <c r="F176">
-        <v>2156.25</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,13 +4075,13 @@
         <v>100</v>
       </c>
       <c r="D177">
-        <v>2156.25</v>
+        <v>2531.25</v>
       </c>
       <c r="E177">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
       <c r="F177">
-        <v>2156.25</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,13 +4095,13 @@
         <v>100</v>
       </c>
       <c r="D178">
-        <v>2156.25</v>
+        <v>2437.5</v>
       </c>
       <c r="E178">
-        <v>3656.25</v>
+        <v>3750</v>
       </c>
       <c r="F178">
-        <v>2062.5</v>
+        <v>3468.75</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4115,13 +4115,13 @@
         <v>100</v>
       </c>
       <c r="D179">
-        <v>2156.25</v>
+        <v>2625</v>
       </c>
       <c r="E179">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
       <c r="F179">
-        <v>2062.5</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4135,13 +4135,13 @@
         <v>100</v>
       </c>
       <c r="D180">
-        <v>2531.25</v>
+        <v>2718.75</v>
       </c>
       <c r="E180">
-        <v>3843.75</v>
+        <v>3562.5</v>
       </c>
       <c r="F180">
-        <v>3843.75</v>
+        <v>3562.5</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,13 +4155,13 @@
         <v>100</v>
       </c>
       <c r="D181">
-        <v>2437.5</v>
+        <v>2531.25</v>
       </c>
       <c r="E181">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
       <c r="F181">
-        <v>3468.75</v>
+        <v>2156.25</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4175,13 +4175,13 @@
         <v>100</v>
       </c>
       <c r="D182">
-        <v>2625</v>
+        <v>2812.5</v>
       </c>
       <c r="E182">
-        <v>3843.75</v>
+        <v>3656.25</v>
       </c>
       <c r="F182">
-        <v>4125</v>
+        <v>3562.5</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4195,13 +4195,13 @@
         <v>100</v>
       </c>
       <c r="D183">
-        <v>2718.75</v>
+        <v>2625</v>
       </c>
       <c r="E183">
-        <v>3562.5</v>
+        <v>3750</v>
       </c>
       <c r="F183">
-        <v>3562.5</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4215,13 +4215,13 @@
         <v>100</v>
       </c>
       <c r="D184">
-        <v>2531.25</v>
+        <v>2156.25</v>
       </c>
       <c r="E184">
-        <v>3843.75</v>
+        <v>3656.25</v>
       </c>
       <c r="F184">
-        <v>2156.25</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4235,13 +4235,13 @@
         <v>100</v>
       </c>
       <c r="D185">
-        <v>2812.5</v>
+        <v>2531.25</v>
       </c>
       <c r="E185">
-        <v>3656.25</v>
+        <v>3750</v>
       </c>
       <c r="F185">
-        <v>3562.5</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,18 +4251,19 @@
       <c r="B186" t="s">
         <v>9</v>
       </c>
-      <c r="C186">
-        <v>100</v>
+      <c r="C186" s="1">
+        <v>90</v>
       </c>
       <c r="D186">
-        <v>2625</v>
+        <v>1875</v>
       </c>
       <c r="E186">
-        <v>3750</v>
+        <v>3656.25</v>
       </c>
       <c r="F186">
-        <v>2062.5</v>
-      </c>
+        <v>1781.25</v>
+      </c>
+      <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -4271,17 +4272,17 @@
       <c r="B187" t="s">
         <v>9</v>
       </c>
-      <c r="C187">
-        <v>100</v>
+      <c r="C187" s="1">
+        <v>90</v>
       </c>
       <c r="D187">
         <v>2156.25</v>
       </c>
       <c r="E187">
-        <v>3656.25</v>
+        <v>3000</v>
       </c>
       <c r="F187">
-        <v>2062.5</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4291,17 +4292,17 @@
       <c r="B188" t="s">
         <v>9</v>
       </c>
-      <c r="C188">
-        <v>100</v>
+      <c r="C188" s="1">
+        <v>90</v>
       </c>
       <c r="D188">
-        <v>2531.25</v>
+        <v>2156.25</v>
       </c>
       <c r="E188">
-        <v>3750</v>
+        <v>3093.75</v>
       </c>
       <c r="F188">
-        <v>3750</v>
+        <v>2156.25</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4311,19 +4312,18 @@
       <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C189" s="1">
-        <v>90</v>
+      <c r="C189">
+        <v>75</v>
       </c>
       <c r="D189">
-        <v>1875</v>
+        <v>2343.75</v>
       </c>
       <c r="E189">
-        <v>3656.25</v>
+        <v>3375</v>
       </c>
       <c r="F189">
-        <v>1781.25</v>
-      </c>
-      <c r="G189" s="1"/>
+        <v>2437.5</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -4332,17 +4332,17 @@
       <c r="B190" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="1">
-        <v>90</v>
+      <c r="C190">
+        <v>75</v>
       </c>
       <c r="D190">
-        <v>2156.25</v>
+        <v>2812.5</v>
       </c>
       <c r="E190">
-        <v>3000</v>
+        <v>3656.25</v>
       </c>
       <c r="F190">
-        <v>2343.75</v>
+        <v>3281.25</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4352,17 +4352,17 @@
       <c r="B191" t="s">
         <v>9</v>
       </c>
-      <c r="C191" s="1">
-        <v>90</v>
+      <c r="C191">
+        <v>75</v>
       </c>
       <c r="D191">
-        <v>2156.25</v>
+        <v>2343.75</v>
       </c>
       <c r="E191">
-        <v>3093.75</v>
+        <v>2437.5</v>
       </c>
       <c r="F191">
-        <v>2156.25</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4376,13 +4376,13 @@
         <v>75</v>
       </c>
       <c r="D192">
-        <v>2343.75</v>
+        <v>2531.25</v>
       </c>
       <c r="E192">
         <v>3375</v>
       </c>
       <c r="F192">
-        <v>2437.5</v>
+        <v>2906.25</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,73 +4396,73 @@
         <v>75</v>
       </c>
       <c r="D193">
-        <v>2812.5</v>
+        <v>2250</v>
       </c>
       <c r="E193">
-        <v>3656.25</v>
+        <v>2531.25</v>
       </c>
       <c r="F193">
-        <v>3281.25</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
       <c r="C194">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D194">
-        <v>2343.75</v>
+        <v>3468.75</v>
       </c>
       <c r="E194">
-        <v>2437.5</v>
+        <v>3937.5</v>
       </c>
       <c r="F194">
-        <v>2437.5</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
       </c>
       <c r="C195">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D195">
-        <v>2531.25</v>
+        <v>3375</v>
       </c>
       <c r="E195">
-        <v>3375</v>
+        <v>3843.75</v>
       </c>
       <c r="F195">
-        <v>2906.25</v>
+        <v>3562.5</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
       <c r="C196">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D196">
-        <v>2250</v>
+        <v>3656.25</v>
       </c>
       <c r="E196">
-        <v>2531.25</v>
+        <v>4031.25</v>
       </c>
       <c r="F196">
-        <v>2343.75</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4476,13 +4476,13 @@
         <v>100</v>
       </c>
       <c r="D197">
-        <v>3468.75</v>
+        <v>3187.5</v>
       </c>
       <c r="E197">
-        <v>3937.5</v>
+        <v>3750</v>
       </c>
       <c r="F197">
-        <v>3937.5</v>
+        <v>3187.5</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,13 +4496,13 @@
         <v>100</v>
       </c>
       <c r="D198">
-        <v>3375</v>
+        <v>3281.25</v>
       </c>
       <c r="E198">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
       <c r="F198">
-        <v>3562.5</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,13 +4516,13 @@
         <v>100</v>
       </c>
       <c r="D199">
-        <v>3656.25</v>
+        <v>3375</v>
       </c>
       <c r="E199">
-        <v>4031.25</v>
+        <v>3843.75</v>
       </c>
       <c r="F199">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,13 +4536,13 @@
         <v>100</v>
       </c>
       <c r="D200">
-        <v>3187.5</v>
+        <v>3375</v>
       </c>
       <c r="E200">
-        <v>3750</v>
+        <v>3937.5</v>
       </c>
       <c r="F200">
-        <v>3187.5</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
         <v>100</v>
       </c>
       <c r="D201">
-        <v>3281.25</v>
+        <v>3187.5</v>
       </c>
       <c r="E201">
         <v>3750</v>
@@ -4582,7 +4582,7 @@
         <v>3843.75</v>
       </c>
       <c r="F202">
-        <v>3843.75</v>
+        <v>3656.25</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,13 +4596,13 @@
         <v>100</v>
       </c>
       <c r="D203">
-        <v>3375</v>
+        <v>3281.25</v>
       </c>
       <c r="E203">
-        <v>3937.5</v>
+        <v>3750</v>
       </c>
       <c r="F203">
-        <v>3937.5</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4616,13 +4616,13 @@
         <v>100</v>
       </c>
       <c r="D204">
-        <v>3187.5</v>
+        <v>3375</v>
       </c>
       <c r="E204">
         <v>3750</v>
       </c>
       <c r="F204">
-        <v>3750</v>
+        <v>3656.25</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4633,16 +4633,16 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D205">
-        <v>3375</v>
+        <v>3468.75</v>
       </c>
       <c r="E205">
-        <v>3843.75</v>
+        <v>3937.5</v>
       </c>
       <c r="F205">
-        <v>3656.25</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,16 +4653,16 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D206">
-        <v>3281.25</v>
+        <v>3656.25</v>
       </c>
       <c r="E206">
-        <v>3750</v>
+        <v>4125</v>
       </c>
       <c r="F206">
-        <v>3750</v>
+        <v>4031.25</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,16 +4673,16 @@
         <v>9</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D207">
-        <v>3375</v>
+        <v>3468.75</v>
       </c>
       <c r="E207">
-        <v>3750</v>
+        <v>3937.5</v>
       </c>
       <c r="F207">
-        <v>3656.25</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
         <v>75</v>
       </c>
       <c r="D208">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="E208">
         <v>3937.5</v>
@@ -4716,13 +4716,13 @@
         <v>75</v>
       </c>
       <c r="D209">
-        <v>3656.25</v>
+        <v>3281.25</v>
       </c>
       <c r="E209">
-        <v>4125</v>
+        <v>3843.75</v>
       </c>
       <c r="F209">
-        <v>4031.25</v>
+        <v>3281.25</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>75</v>
       </c>
       <c r="D210">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="E210">
         <v>3937.5</v>
@@ -4756,13 +4756,13 @@
         <v>75</v>
       </c>
       <c r="D211">
-        <v>3375</v>
+        <v>3656.25</v>
       </c>
       <c r="E211">
-        <v>3937.5</v>
+        <v>4218.75</v>
       </c>
       <c r="F211">
-        <v>3937.5</v>
+        <v>4593.75</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4776,13 +4776,13 @@
         <v>75</v>
       </c>
       <c r="D212">
-        <v>3281.25</v>
+        <v>3843.75</v>
       </c>
       <c r="E212">
+        <v>4406.25</v>
+      </c>
+      <c r="F212">
         <v>3843.75</v>
-      </c>
-      <c r="F212">
-        <v>3281.25</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4796,13 +4796,13 @@
         <v>75</v>
       </c>
       <c r="D213">
-        <v>3375</v>
+        <v>3843.75</v>
       </c>
       <c r="E213">
-        <v>3937.5</v>
+        <v>4406.25</v>
       </c>
       <c r="F213">
-        <v>3843.75</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,13 +4816,13 @@
         <v>75</v>
       </c>
       <c r="D214">
-        <v>3656.25</v>
+        <v>3468.75</v>
       </c>
       <c r="E214">
-        <v>4218.75</v>
+        <v>3843.75</v>
       </c>
       <c r="F214">
-        <v>4593.75</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4836,13 +4836,13 @@
         <v>75</v>
       </c>
       <c r="D215">
+        <v>3375</v>
+      </c>
+      <c r="E215">
         <v>3843.75</v>
       </c>
-      <c r="E215">
-        <v>4406.25</v>
-      </c>
       <c r="F215">
-        <v>3843.75</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4856,13 +4856,13 @@
         <v>75</v>
       </c>
       <c r="D216">
-        <v>3843.75</v>
+        <v>3375</v>
       </c>
       <c r="E216">
-        <v>4406.25</v>
+        <v>3750</v>
       </c>
       <c r="F216">
-        <v>4125</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4876,13 +4876,13 @@
         <v>75</v>
       </c>
       <c r="D217">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="E217">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
       <c r="F217">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,7 +4902,7 @@
         <v>3843.75</v>
       </c>
       <c r="F218">
-        <v>3937.5</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,13 +4916,13 @@
         <v>75</v>
       </c>
       <c r="D219">
-        <v>3375</v>
+        <v>3468.75</v>
       </c>
       <c r="E219">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
       <c r="F219">
-        <v>3750</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
         <v>3843.75</v>
       </c>
       <c r="F221">
-        <v>3750</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,13 +4976,13 @@
         <v>75</v>
       </c>
       <c r="D222">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="E222">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
       <c r="F222">
-        <v>3843.75</v>
+        <v>3656.25</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,16 +4993,16 @@
         <v>9</v>
       </c>
       <c r="C223">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D223">
-        <v>3375</v>
+        <v>3656.25</v>
       </c>
       <c r="E223">
-        <v>3750</v>
+        <v>4125</v>
       </c>
       <c r="F223">
-        <v>3750</v>
+        <v>4031.25</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5013,16 +5013,16 @@
         <v>9</v>
       </c>
       <c r="C224">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D224">
-        <v>3375</v>
+        <v>3562.5</v>
       </c>
       <c r="E224">
-        <v>3843.75</v>
+        <v>4218.75</v>
       </c>
       <c r="F224">
-        <v>3375</v>
+        <v>4218.75</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5033,10 +5033,10 @@
         <v>9</v>
       </c>
       <c r="C225">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D225">
-        <v>3375</v>
+        <v>3281.25</v>
       </c>
       <c r="E225">
         <v>3750</v>
@@ -5056,13 +5056,13 @@
         <v>50</v>
       </c>
       <c r="D226">
-        <v>3656.25</v>
+        <v>3562.5</v>
       </c>
       <c r="E226">
-        <v>4125</v>
+        <v>3937.5</v>
       </c>
       <c r="F226">
-        <v>4031.25</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5073,16 +5073,16 @@
         <v>9</v>
       </c>
       <c r="C227">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>3562.5</v>
+        <v>3750</v>
       </c>
       <c r="E227">
         <v>4218.75</v>
       </c>
       <c r="F227">
-        <v>4218.75</v>
+        <v>3937.5</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5093,16 +5093,16 @@
         <v>9</v>
       </c>
       <c r="C228">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>3281.25</v>
+        <v>3468.75</v>
       </c>
       <c r="E228">
-        <v>3750</v>
+        <v>4031.25</v>
       </c>
       <c r="F228">
-        <v>3656.25</v>
+        <v>4312.5</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5113,16 +5113,16 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D229">
-        <v>3562.5</v>
+        <v>3281.25</v>
       </c>
       <c r="E229">
-        <v>3937.5</v>
+        <v>3843.75</v>
       </c>
       <c r="F229">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5136,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>3750</v>
+        <v>3468.75</v>
       </c>
       <c r="E230">
-        <v>4218.75</v>
+        <v>3843.75</v>
       </c>
       <c r="F230">
-        <v>3937.5</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>3468.75</v>
+        <v>3281.25</v>
       </c>
       <c r="E231">
-        <v>4031.25</v>
+        <v>3843.75</v>
       </c>
       <c r="F231">
-        <v>4312.5</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,38 +5176,38 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>3281.25</v>
+        <v>3375</v>
       </c>
       <c r="E232">
         <v>3843.75</v>
       </c>
       <c r="F232">
-        <v>3750</v>
+        <v>3656.25</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
         <v>9</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D233">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="E233">
         <v>3843.75</v>
       </c>
       <c r="F233">
-        <v>3843.75</v>
+        <v>3468.75</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B234" t="s">
         <v>9</v>
@@ -5216,73 +5216,73 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>3281.25</v>
+        <v>3375</v>
       </c>
       <c r="E234">
-        <v>3843.75</v>
+        <v>3562.5</v>
       </c>
       <c r="F234">
-        <v>3843.75</v>
+        <v>3468.75</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D235">
-        <v>3375</v>
+        <v>2718.75</v>
       </c>
       <c r="E235">
+        <v>3937.5</v>
+      </c>
+      <c r="F235">
         <v>3843.75</v>
-      </c>
-      <c r="F235">
-        <v>3656.25</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
       </c>
       <c r="C236">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D236">
-        <v>3375</v>
+        <v>2812.5</v>
       </c>
       <c r="E236">
-        <v>3843.75</v>
+        <v>3656.25</v>
       </c>
       <c r="F236">
-        <v>3468.75</v>
+        <v>3562.5</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D237">
-        <v>3375</v>
+        <v>2625</v>
       </c>
       <c r="E237">
-        <v>3562.5</v>
+        <v>3843.75</v>
       </c>
       <c r="F237">
-        <v>3468.75</v>
+        <v>4031.25</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5293,16 +5293,16 @@
         <v>9</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D238">
-        <v>2718.75</v>
+        <v>2906.25</v>
       </c>
       <c r="E238">
-        <v>3937.5</v>
+        <v>3562.5</v>
       </c>
       <c r="F238">
-        <v>3843.75</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5313,16 +5313,16 @@
         <v>9</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D239">
         <v>2812.5</v>
       </c>
       <c r="E239">
-        <v>3656.25</v>
+        <v>3843.75</v>
       </c>
       <c r="F239">
-        <v>3562.5</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -5333,76 +5333,76 @@
         <v>9</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D240">
-        <v>2625</v>
+        <v>2718.75</v>
       </c>
       <c r="E240">
-        <v>3843.75</v>
+        <v>3750</v>
       </c>
       <c r="F240">
-        <v>4031.25</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B241" t="s">
         <v>9</v>
       </c>
       <c r="C241">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D241">
-        <v>2906.25</v>
+        <v>2718.75</v>
       </c>
       <c r="E241">
-        <v>3562.5</v>
+        <v>3187.5</v>
       </c>
       <c r="F241">
-        <v>3375</v>
+        <v>2812.5</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
       </c>
       <c r="C242">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D242">
+        <v>2625</v>
+      </c>
+      <c r="E242">
+        <v>3281.25</v>
+      </c>
+      <c r="F242">
         <v>2812.5</v>
-      </c>
-      <c r="E242">
-        <v>3843.75</v>
-      </c>
-      <c r="F242">
-        <v>3843.75</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
         <v>9</v>
       </c>
       <c r="C243">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D243">
-        <v>2718.75</v>
+        <v>3093.75</v>
       </c>
       <c r="E243">
-        <v>3750</v>
+        <v>3468.75</v>
       </c>
       <c r="F243">
-        <v>3750</v>
+        <v>3187.5</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5416,13 +5416,13 @@
         <v>100</v>
       </c>
       <c r="D244">
-        <v>2718.75</v>
+        <v>2437.5</v>
       </c>
       <c r="E244">
-        <v>3187.5</v>
+        <v>2531.25</v>
       </c>
       <c r="F244">
-        <v>2812.5</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5436,10 +5436,10 @@
         <v>100</v>
       </c>
       <c r="D245">
-        <v>2625</v>
+        <v>2437.5</v>
       </c>
       <c r="E245">
-        <v>3281.25</v>
+        <v>3562.5</v>
       </c>
       <c r="F245">
         <v>2812.5</v>
@@ -5456,13 +5456,13 @@
         <v>100</v>
       </c>
       <c r="D246">
-        <v>3093.75</v>
+        <v>1875</v>
       </c>
       <c r="E246">
+        <v>3281.25</v>
+      </c>
+      <c r="F246">
         <v>3468.75</v>
-      </c>
-      <c r="F246">
-        <v>3187.5</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,13 +5476,13 @@
         <v>100</v>
       </c>
       <c r="D247">
-        <v>2437.5</v>
+        <v>2156.25</v>
       </c>
       <c r="E247">
-        <v>2531.25</v>
+        <v>3093.75</v>
       </c>
       <c r="F247">
-        <v>2531.25</v>
+        <v>2906.25</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5496,13 +5496,13 @@
         <v>100</v>
       </c>
       <c r="D248">
-        <v>2437.5</v>
+        <v>2343.75</v>
       </c>
       <c r="E248">
-        <v>3562.5</v>
+        <v>2531.25</v>
       </c>
       <c r="F248">
-        <v>2812.5</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5516,13 +5516,13 @@
         <v>100</v>
       </c>
       <c r="D249">
-        <v>1875</v>
+        <v>2437.5</v>
       </c>
       <c r="E249">
-        <v>3281.25</v>
+        <v>3656.25</v>
       </c>
       <c r="F249">
-        <v>3468.75</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5536,13 +5536,13 @@
         <v>100</v>
       </c>
       <c r="D250">
-        <v>2156.25</v>
+        <v>2437.5</v>
       </c>
       <c r="E250">
-        <v>3093.75</v>
+        <v>2531.25</v>
       </c>
       <c r="F250">
-        <v>2906.25</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5553,16 +5553,16 @@
         <v>9</v>
       </c>
       <c r="C251">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D251">
         <v>2343.75</v>
       </c>
       <c r="E251">
-        <v>2531.25</v>
+        <v>3187.5</v>
       </c>
       <c r="F251">
-        <v>2531.25</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5573,16 +5573,16 @@
         <v>9</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D252">
         <v>2437.5</v>
       </c>
       <c r="E252">
-        <v>3656.25</v>
+        <v>3468.75</v>
       </c>
       <c r="F252">
-        <v>3000</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5593,16 +5593,16 @@
         <v>9</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D253">
-        <v>2437.5</v>
+        <v>2343.75</v>
       </c>
       <c r="E253">
+        <v>2625</v>
+      </c>
+      <c r="F253">
         <v>2531.25</v>
-      </c>
-      <c r="F253">
-        <v>2437.5</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,7 +5619,7 @@
         <v>2343.75</v>
       </c>
       <c r="E254">
-        <v>3187.5</v>
+        <v>3000</v>
       </c>
       <c r="F254">
         <v>2343.75</v>
@@ -5639,7 +5639,7 @@
         <v>2437.5</v>
       </c>
       <c r="E255">
-        <v>3468.75</v>
+        <v>3750</v>
       </c>
       <c r="F255">
         <v>2437.5</v>
@@ -5656,13 +5656,13 @@
         <v>90</v>
       </c>
       <c r="D256">
-        <v>2343.75</v>
+        <v>2531.25</v>
       </c>
       <c r="E256">
-        <v>2625</v>
+        <v>3281.25</v>
       </c>
       <c r="F256">
-        <v>2531.25</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5676,13 +5676,13 @@
         <v>90</v>
       </c>
       <c r="D257">
-        <v>2343.75</v>
+        <v>2531.25</v>
       </c>
       <c r="E257">
-        <v>3000</v>
+        <v>3656.25</v>
       </c>
       <c r="F257">
-        <v>2343.75</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5696,13 +5696,13 @@
         <v>90</v>
       </c>
       <c r="D258">
-        <v>2437.5</v>
+        <v>2343.75</v>
       </c>
       <c r="E258">
-        <v>3750</v>
+        <v>3562.5</v>
       </c>
       <c r="F258">
-        <v>2437.5</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,13 +5716,13 @@
         <v>90</v>
       </c>
       <c r="D259">
+        <v>2437.5</v>
+      </c>
+      <c r="E259">
         <v>2531.25</v>
       </c>
-      <c r="E259">
-        <v>3281.25</v>
-      </c>
       <c r="F259">
-        <v>3000</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5736,13 +5736,13 @@
         <v>90</v>
       </c>
       <c r="D260">
-        <v>2531.25</v>
+        <v>2437.5</v>
       </c>
       <c r="E260">
-        <v>3656.25</v>
+        <v>2718.75</v>
       </c>
       <c r="F260">
-        <v>3375</v>
+        <v>2718.75</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -5756,13 +5756,13 @@
         <v>90</v>
       </c>
       <c r="D261">
-        <v>2343.75</v>
+        <v>2906.25</v>
       </c>
       <c r="E261">
-        <v>3562.5</v>
+        <v>3468.75</v>
       </c>
       <c r="F261">
-        <v>2343.75</v>
+        <v>2812.5</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5776,13 +5776,13 @@
         <v>90</v>
       </c>
       <c r="D262">
-        <v>2437.5</v>
+        <v>2906.25</v>
       </c>
       <c r="E262">
-        <v>2531.25</v>
+        <v>3468.75</v>
       </c>
       <c r="F262">
-        <v>2437.5</v>
+        <v>3187.5</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5796,13 +5796,13 @@
         <v>90</v>
       </c>
       <c r="D263">
-        <v>2437.5</v>
+        <v>2343.75</v>
       </c>
       <c r="E263">
-        <v>2718.75</v>
+        <v>2531.25</v>
       </c>
       <c r="F263">
-        <v>2718.75</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5816,13 +5816,13 @@
         <v>90</v>
       </c>
       <c r="D264">
-        <v>2906.25</v>
+        <v>2343.75</v>
       </c>
       <c r="E264">
-        <v>3468.75</v>
+        <v>3375</v>
       </c>
       <c r="F264">
-        <v>2812.5</v>
+        <v>3187.5</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,16 +5833,16 @@
         <v>9</v>
       </c>
       <c r="C265">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D265">
-        <v>2906.25</v>
+        <v>2531.25</v>
       </c>
       <c r="E265">
-        <v>3468.75</v>
+        <v>2718.75</v>
       </c>
       <c r="F265">
-        <v>3187.5</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -5853,13 +5853,13 @@
         <v>9</v>
       </c>
       <c r="C266">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D266">
-        <v>2343.75</v>
+        <v>2437.5</v>
       </c>
       <c r="E266">
-        <v>2531.25</v>
+        <v>3187.5</v>
       </c>
       <c r="F266">
         <v>2531.25</v>
@@ -5873,16 +5873,16 @@
         <v>9</v>
       </c>
       <c r="C267">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D267">
-        <v>2343.75</v>
+        <v>2062.5</v>
       </c>
       <c r="E267">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="F267">
-        <v>3187.5</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5893,10 +5893,10 @@
         <v>9</v>
       </c>
       <c r="C268">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D268">
-        <v>2531.25</v>
+        <v>2343.75</v>
       </c>
       <c r="E268">
         <v>2718.75</v>
@@ -5913,16 +5913,16 @@
         <v>9</v>
       </c>
       <c r="C269">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D269">
-        <v>2437.5</v>
+        <v>2250</v>
       </c>
       <c r="E269">
-        <v>3187.5</v>
+        <v>2812.5</v>
       </c>
       <c r="F269">
-        <v>2531.25</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5936,13 +5936,13 @@
         <v>50</v>
       </c>
       <c r="D270">
-        <v>2062.5</v>
+        <v>2437.5</v>
       </c>
       <c r="E270">
-        <v>3750</v>
+        <v>3375</v>
       </c>
       <c r="F270">
-        <v>3843.75</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,10 +5959,10 @@
         <v>2343.75</v>
       </c>
       <c r="E271">
-        <v>2718.75</v>
+        <v>3375</v>
       </c>
       <c r="F271">
-        <v>2625</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5976,13 +5976,13 @@
         <v>50</v>
       </c>
       <c r="D272">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="E272">
-        <v>2812.5</v>
+        <v>3468.75</v>
       </c>
       <c r="F272">
-        <v>2343.75</v>
+        <v>3093.75</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5996,13 +5996,13 @@
         <v>50</v>
       </c>
       <c r="D273">
-        <v>2437.5</v>
+        <v>2531.25</v>
       </c>
       <c r="E273">
-        <v>3375</v>
+        <v>2718.75</v>
       </c>
       <c r="F273">
-        <v>2437.5</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,13 +6016,13 @@
         <v>50</v>
       </c>
       <c r="D274">
-        <v>2343.75</v>
+        <v>2718.75</v>
       </c>
       <c r="E274">
-        <v>3375</v>
+        <v>3562.5</v>
       </c>
       <c r="F274">
-        <v>2437.5</v>
+        <v>3468.75</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6036,13 +6036,13 @@
         <v>50</v>
       </c>
       <c r="D275">
-        <v>2625</v>
+        <v>2437.5</v>
       </c>
       <c r="E275">
-        <v>3468.75</v>
+        <v>3093.75</v>
       </c>
       <c r="F275">
-        <v>3093.75</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6056,13 +6056,13 @@
         <v>50</v>
       </c>
       <c r="D276">
-        <v>2531.25</v>
+        <v>2625</v>
       </c>
       <c r="E276">
+        <v>2812.5</v>
+      </c>
+      <c r="F276">
         <v>2718.75</v>
-      </c>
-      <c r="F276">
-        <v>2625</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,13 +6076,13 @@
         <v>50</v>
       </c>
       <c r="D277">
-        <v>2718.75</v>
+        <v>2062.5</v>
       </c>
       <c r="E277">
-        <v>3562.5</v>
+        <v>2625</v>
       </c>
       <c r="F277">
-        <v>3468.75</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,7 +6093,7 @@
         <v>9</v>
       </c>
       <c r="C278">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D278">
         <v>2437.5</v>
@@ -6113,16 +6113,16 @@
         <v>9</v>
       </c>
       <c r="C279">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D279">
-        <v>2625</v>
+        <v>2062.5</v>
       </c>
       <c r="E279">
-        <v>2812.5</v>
+        <v>2437.5</v>
       </c>
       <c r="F279">
-        <v>2718.75</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6133,16 +6133,16 @@
         <v>9</v>
       </c>
       <c r="C280">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>2062.5</v>
+        <v>2343.75</v>
       </c>
       <c r="E280">
-        <v>2625</v>
+        <v>3375</v>
       </c>
       <c r="F280">
-        <v>2531.25</v>
+        <v>2343.75</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6156,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>2437.5</v>
+        <v>3000</v>
       </c>
       <c r="E281">
-        <v>3093.75</v>
+        <v>3468.75</v>
       </c>
       <c r="F281">
-        <v>2437.5</v>
+        <v>3281.25</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>2062.5</v>
+        <v>3093.75</v>
       </c>
       <c r="E282">
-        <v>2437.5</v>
+        <v>3937.5</v>
       </c>
       <c r="F282">
-        <v>2062.5</v>
+        <v>3843.75</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6196,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>2343.75</v>
+        <v>2906.25</v>
       </c>
       <c r="E283">
+        <v>3468.75</v>
+      </c>
+      <c r="F283">
         <v>3375</v>
-      </c>
-      <c r="F283">
-        <v>2343.75</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>3000</v>
+        <v>2718.75</v>
       </c>
       <c r="E284">
         <v>3468.75</v>
@@ -6236,72 +6236,12 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>3093.75</v>
+        <v>2062.5</v>
       </c>
       <c r="E285">
-        <v>3937.5</v>
+        <v>2718.75</v>
       </c>
       <c r="F285">
-        <v>3843.75</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>14</v>
-      </c>
-      <c r="B286" t="s">
-        <v>9</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>2906.25</v>
-      </c>
-      <c r="E286">
-        <v>3468.75</v>
-      </c>
-      <c r="F286">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>14</v>
-      </c>
-      <c r="B287" t="s">
-        <v>9</v>
-      </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
-        <v>2718.75</v>
-      </c>
-      <c r="E287">
-        <v>3468.75</v>
-      </c>
-      <c r="F287">
-        <v>3281.25</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>14</v>
-      </c>
-      <c r="B288" t="s">
-        <v>9</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-      <c r="D288">
-        <v>2062.5</v>
-      </c>
-      <c r="E288">
-        <v>2718.75</v>
-      </c>
-      <c r="F288">
         <v>2062.5</v>
       </c>
     </row>
